--- a/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
+++ b/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157393" uniqueCount="3703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216493" uniqueCount="3979">
   <si>
     <t>Line</t>
   </si>
@@ -11143,6 +11143,834 @@
   </si>
   <si>
     <t>108</t>
+  </si>
+  <si>
+    <t>11116</t>
+  </si>
+  <si>
+    <t>11117</t>
+  </si>
+  <si>
+    <t>11118</t>
+  </si>
+  <si>
+    <t>11119</t>
+  </si>
+  <si>
+    <t>11120</t>
+  </si>
+  <si>
+    <t>11121</t>
+  </si>
+  <si>
+    <t>11122</t>
+  </si>
+  <si>
+    <t>11123</t>
+  </si>
+  <si>
+    <t>11124</t>
+  </si>
+  <si>
+    <t>11125</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>889</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>898</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>5716</t>
+  </si>
+  <si>
+    <t>5717</t>
+  </si>
+  <si>
+    <t>5718</t>
+  </si>
+  <si>
+    <t>5719</t>
+  </si>
+  <si>
+    <t>5720</t>
+  </si>
+  <si>
+    <t>5721</t>
+  </si>
+  <si>
+    <t>5722</t>
+  </si>
+  <si>
+    <t>5723</t>
+  </si>
+  <si>
+    <t>5724</t>
+  </si>
+  <si>
+    <t>5789</t>
+  </si>
+  <si>
+    <t>5791</t>
+  </si>
+  <si>
+    <t>5792</t>
+  </si>
+  <si>
+    <t>5793</t>
+  </si>
+  <si>
+    <t>5794</t>
+  </si>
+  <si>
+    <t>5795</t>
+  </si>
+  <si>
+    <t>5796</t>
+  </si>
+  <si>
+    <t>5815</t>
+  </si>
+  <si>
+    <t>5816</t>
+  </si>
+  <si>
+    <t>5817</t>
+  </si>
+  <si>
+    <t>5818</t>
+  </si>
+  <si>
+    <t>5819</t>
+  </si>
+  <si>
+    <t>5820</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>773</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>774</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>933</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>1508</t>
+  </si>
+  <si>
+    <t>1509</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>1526</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1528</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>1622</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>1624</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>1626</t>
+  </si>
+  <si>
+    <t>1627</t>
+  </si>
+  <si>
+    <t>1628</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>1631</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>1633</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1774</t>
+  </si>
+  <si>
+    <t>1775</t>
+  </si>
+  <si>
+    <t>1776</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
+    <t>1778</t>
+  </si>
+  <si>
+    <t>1779</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>1781</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>1783</t>
+  </si>
+  <si>
+    <t>1784</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>1786</t>
+  </si>
+  <si>
+    <t>1787</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>1789</t>
+  </si>
+  <si>
+    <t>1790</t>
+  </si>
+  <si>
+    <t>1791</t>
+  </si>
+  <si>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>1848</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>1851</t>
+  </si>
+  <si>
+    <t>1852</t>
+  </si>
+  <si>
+    <t>1853</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>1855</t>
+  </si>
+  <si>
+    <t>1856</t>
   </si>
 </sst>
 </file>
@@ -11524,7 +12352,7 @@
         <v>6000</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -11533,7 +12361,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="H2">
         <v>25</v>

--- a/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
+++ b/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216493" uniqueCount="3979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232273" uniqueCount="3999">
   <si>
     <t>Line</t>
   </si>
@@ -11971,6 +11971,66 @@
   </si>
   <si>
     <t>1856</t>
+  </si>
+  <si>
+    <t>6176</t>
+  </si>
+  <si>
+    <t>6177</t>
+  </si>
+  <si>
+    <t>6178</t>
+  </si>
+  <si>
+    <t>6179</t>
+  </si>
+  <si>
+    <t>6180</t>
+  </si>
+  <si>
+    <t>6181</t>
+  </si>
+  <si>
+    <t>6182</t>
+  </si>
+  <si>
+    <t>6183</t>
+  </si>
+  <si>
+    <t>6184</t>
+  </si>
+  <si>
+    <t>6185</t>
+  </si>
+  <si>
+    <t>6186</t>
+  </si>
+  <si>
+    <t>6187</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>522</t>
   </si>
 </sst>
 </file>
@@ -12352,7 +12412,7 @@
         <v>6000</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>3856</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -12361,7 +12421,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>3991</v>
       </c>
       <c r="H2">
         <v>25</v>
@@ -12406,7 +12466,7 @@
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>3992</v>
       </c>
       <c r="H3">
         <v>37</v>
@@ -12451,7 +12511,7 @@
         <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>3992</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -12496,7 +12556,7 @@
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>3992</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -12541,7 +12601,7 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>3992</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -12586,7 +12646,7 @@
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>3992</v>
       </c>
       <c r="H7">
         <v>51</v>
@@ -12631,7 +12691,7 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>3992</v>
       </c>
       <c r="H8">
         <v>51</v>
@@ -12676,7 +12736,7 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>3992</v>
       </c>
       <c r="H9">
         <v>51</v>
@@ -12721,7 +12781,7 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>3992</v>
       </c>
       <c r="H10">
         <v>51</v>
@@ -12766,7 +12826,7 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>3992</v>
       </c>
       <c r="H11">
         <v>51</v>
@@ -12811,7 +12871,7 @@
         <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>3992</v>
       </c>
       <c r="H12">
         <v>51</v>
@@ -12856,7 +12916,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>3992</v>
       </c>
       <c r="H13">
         <v>51</v>

--- a/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
+++ b/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216493" uniqueCount="3979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217333" uniqueCount="3983">
   <si>
     <t>Line</t>
   </si>
@@ -11971,6 +11971,18 @@
   </si>
   <si>
     <t>1856</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>627</t>
   </si>
 </sst>
 </file>
@@ -12352,7 +12364,7 @@
         <v>6000</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>3826</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -12361,7 +12373,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>679</v>
       </c>
       <c r="H2">
         <v>25</v>

--- a/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
+++ b/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271093" uniqueCount="4015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376873" uniqueCount="4203">
   <si>
     <t>Line</t>
   </si>
@@ -12079,6 +12079,570 @@
   </si>
   <si>
     <t>2.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>334.0</t>
+  </si>
+  <si>
+    <t>1439</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>335.0</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>1547</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>1552</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>1555</t>
+  </si>
+  <si>
+    <t>1556</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>336.0</t>
+  </si>
+  <si>
+    <t>1558</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>1560</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>1562</t>
+  </si>
+  <si>
+    <t>1563</t>
+  </si>
+  <si>
+    <t>1564</t>
+  </si>
+  <si>
+    <t>1565</t>
+  </si>
+  <si>
+    <t>1566</t>
+  </si>
+  <si>
+    <t>1567</t>
+  </si>
+  <si>
+    <t>1568</t>
+  </si>
+  <si>
+    <t>1569</t>
+  </si>
+  <si>
+    <t>1570</t>
+  </si>
+  <si>
+    <t>1571</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>1573</t>
+  </si>
+  <si>
+    <t>1574</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>1576</t>
+  </si>
+  <si>
+    <t>1577</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>1580</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1582</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>337.0</t>
+  </si>
+  <si>
+    <t>1641</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>1643</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>1646</t>
+  </si>
+  <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>1648</t>
+  </si>
+  <si>
+    <t>1649</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>1651</t>
+  </si>
+  <si>
+    <t>1652</t>
+  </si>
+  <si>
+    <t>1653</t>
+  </si>
+  <si>
+    <t>1654</t>
+  </si>
+  <si>
+    <t>1655</t>
+  </si>
+  <si>
+    <t>1656</t>
+  </si>
+  <si>
+    <t>1657</t>
+  </si>
+  <si>
+    <t>1658</t>
+  </si>
+  <si>
+    <t>1659</t>
+  </si>
+  <si>
+    <t>1660</t>
+  </si>
+  <si>
+    <t>1661</t>
+  </si>
+  <si>
+    <t>1662</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t>1664</t>
+  </si>
+  <si>
+    <t>1665</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>1719</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>1721</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>1723</t>
+  </si>
+  <si>
+    <t>1724</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>1726</t>
+  </si>
+  <si>
+    <t>1727</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>1729</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>1732</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>1735</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>1736</t>
+  </si>
+  <si>
+    <t>1737</t>
+  </si>
+  <si>
+    <t>1738</t>
+  </si>
+  <si>
+    <t>1739</t>
+  </si>
+  <si>
+    <t>1740</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>1743</t>
+  </si>
+  <si>
+    <t>1744</t>
+  </si>
+  <si>
+    <t>1745</t>
+  </si>
+  <si>
+    <t>1746</t>
+  </si>
+  <si>
+    <t>1747</t>
+  </si>
+  <si>
+    <t>1748</t>
+  </si>
+  <si>
+    <t>1749</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>1751</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>1754</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>1756</t>
+  </si>
+  <si>
+    <t>1757</t>
+  </si>
+  <si>
+    <t>1758</t>
+  </si>
+  <si>
+    <t>1759</t>
+  </si>
+  <si>
+    <t>1760</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>1762</t>
+  </si>
+  <si>
+    <t>1763</t>
+  </si>
+  <si>
+    <t>1764</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>1766</t>
+  </si>
+  <si>
+    <t>1767</t>
+  </si>
+  <si>
+    <t>1768</t>
+  </si>
+  <si>
+    <t>1769</t>
+  </si>
+  <si>
+    <t>1770</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>1772</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>751</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>22.0</t>
   </si>
 </sst>
 </file>
@@ -12460,7 +13024,7 @@
         <v>6000</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>708</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -12469,7 +13033,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>4014</v>
+        <v>4202</v>
       </c>
       <c r="H2">
         <v>25</v>

--- a/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
+++ b/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376873" uniqueCount="4203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498673" uniqueCount="4818">
   <si>
     <t>Line</t>
   </si>
@@ -12643,6 +12643,1851 @@
   </si>
   <si>
     <t>22.0</t>
+  </si>
+  <si>
+    <t>5080</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>5082</t>
+  </si>
+  <si>
+    <t>5083</t>
+  </si>
+  <si>
+    <t>5084</t>
+  </si>
+  <si>
+    <t>5085</t>
+  </si>
+  <si>
+    <t>5086</t>
+  </si>
+  <si>
+    <t>5087</t>
+  </si>
+  <si>
+    <t>5088</t>
+  </si>
+  <si>
+    <t>5089</t>
+  </si>
+  <si>
+    <t>5090</t>
+  </si>
+  <si>
+    <t>5091</t>
+  </si>
+  <si>
+    <t>5092</t>
+  </si>
+  <si>
+    <t>5139</t>
+  </si>
+  <si>
+    <t>5140</t>
+  </si>
+  <si>
+    <t>5141</t>
+  </si>
+  <si>
+    <t>5142</t>
+  </si>
+  <si>
+    <t>5143</t>
+  </si>
+  <si>
+    <t>5144</t>
+  </si>
+  <si>
+    <t>5145</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>5146</t>
+  </si>
+  <si>
+    <t>5147</t>
+  </si>
+  <si>
+    <t>5148</t>
+  </si>
+  <si>
+    <t>5149</t>
+  </si>
+  <si>
+    <t>5150</t>
+  </si>
+  <si>
+    <t>5151</t>
+  </si>
+  <si>
+    <t>5152</t>
+  </si>
+  <si>
+    <t>5153</t>
+  </si>
+  <si>
+    <t>5338</t>
+  </si>
+  <si>
+    <t>5339</t>
+  </si>
+  <si>
+    <t>5340</t>
+  </si>
+  <si>
+    <t>5341</t>
+  </si>
+  <si>
+    <t>5342</t>
+  </si>
+  <si>
+    <t>5343</t>
+  </si>
+  <si>
+    <t>5344</t>
+  </si>
+  <si>
+    <t>5345</t>
+  </si>
+  <si>
+    <t>5346</t>
+  </si>
+  <si>
+    <t>5347</t>
+  </si>
+  <si>
+    <t>5564</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>5566</t>
+  </si>
+  <si>
+    <t>5567</t>
+  </si>
+  <si>
+    <t>5568</t>
+  </si>
+  <si>
+    <t>5569</t>
+  </si>
+  <si>
+    <t>5570</t>
+  </si>
+  <si>
+    <t>5611</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>5612</t>
+  </si>
+  <si>
+    <t>5613</t>
+  </si>
+  <si>
+    <t>5614</t>
+  </si>
+  <si>
+    <t>5615</t>
+  </si>
+  <si>
+    <t>5616</t>
+  </si>
+  <si>
+    <t>5617</t>
+  </si>
+  <si>
+    <t>5618</t>
+  </si>
+  <si>
+    <t>5619</t>
+  </si>
+  <si>
+    <t>5620</t>
+  </si>
+  <si>
+    <t>5621</t>
+  </si>
+  <si>
+    <t>5622</t>
+  </si>
+  <si>
+    <t>5623</t>
+  </si>
+  <si>
+    <t>5624</t>
+  </si>
+  <si>
+    <t>5654</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>5655</t>
+  </si>
+  <si>
+    <t>5656</t>
+  </si>
+  <si>
+    <t>5657</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>5972</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>5973</t>
+  </si>
+  <si>
+    <t>6451</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>6452</t>
+  </si>
+  <si>
+    <t>6453</t>
+  </si>
+  <si>
+    <t>6454</t>
+  </si>
+  <si>
+    <t>6455</t>
+  </si>
+  <si>
+    <t>6456</t>
+  </si>
+  <si>
+    <t>6524</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>6556</t>
+  </si>
+  <si>
+    <t>6557</t>
+  </si>
+  <si>
+    <t>6558</t>
+  </si>
+  <si>
+    <t>6559</t>
+  </si>
+  <si>
+    <t>6560</t>
+  </si>
+  <si>
+    <t>6567</t>
+  </si>
+  <si>
+    <t>6568</t>
+  </si>
+  <si>
+    <t>6569</t>
+  </si>
+  <si>
+    <t>6572</t>
+  </si>
+  <si>
+    <t>6573</t>
+  </si>
+  <si>
+    <t>6574</t>
+  </si>
+  <si>
+    <t>6575</t>
+  </si>
+  <si>
+    <t>6576</t>
+  </si>
+  <si>
+    <t>6577</t>
+  </si>
+  <si>
+    <t>11378</t>
+  </si>
+  <si>
+    <t>184.0</t>
+  </si>
+  <si>
+    <t>11379</t>
+  </si>
+  <si>
+    <t>11380</t>
+  </si>
+  <si>
+    <t>11381</t>
+  </si>
+  <si>
+    <t>11382</t>
+  </si>
+  <si>
+    <t>11383</t>
+  </si>
+  <si>
+    <t>11822</t>
+  </si>
+  <si>
+    <t>11823</t>
+  </si>
+  <si>
+    <t>11824</t>
+  </si>
+  <si>
+    <t>11825</t>
+  </si>
+  <si>
+    <t>11826</t>
+  </si>
+  <si>
+    <t>11827</t>
+  </si>
+  <si>
+    <t>11828</t>
+  </si>
+  <si>
+    <t>11876</t>
+  </si>
+  <si>
+    <t>11877</t>
+  </si>
+  <si>
+    <t>11878</t>
+  </si>
+  <si>
+    <t>11879</t>
+  </si>
+  <si>
+    <t>11880</t>
+  </si>
+  <si>
+    <t>11902</t>
+  </si>
+  <si>
+    <t>11903</t>
+  </si>
+  <si>
+    <t>11904</t>
+  </si>
+  <si>
+    <t>11905</t>
+  </si>
+  <si>
+    <t>11906</t>
+  </si>
+  <si>
+    <t>12008</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>12009</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>12010</t>
+  </si>
+  <si>
+    <t>12011</t>
+  </si>
+  <si>
+    <t>12012</t>
+  </si>
+  <si>
+    <t>12013</t>
+  </si>
+  <si>
+    <t>12014</t>
+  </si>
+  <si>
+    <t>12015</t>
+  </si>
+  <si>
+    <t>12016</t>
+  </si>
+  <si>
+    <t>12017</t>
+  </si>
+  <si>
+    <t>12018</t>
+  </si>
+  <si>
+    <t>12019</t>
+  </si>
+  <si>
+    <t>12020</t>
+  </si>
+  <si>
+    <t>12021</t>
+  </si>
+  <si>
+    <t>12022</t>
+  </si>
+  <si>
+    <t>12023</t>
+  </si>
+  <si>
+    <t>12024</t>
+  </si>
+  <si>
+    <t>12025</t>
+  </si>
+  <si>
+    <t>12026</t>
+  </si>
+  <si>
+    <t>12027</t>
+  </si>
+  <si>
+    <t>12028</t>
+  </si>
+  <si>
+    <t>12029</t>
+  </si>
+  <si>
+    <t>12030</t>
+  </si>
+  <si>
+    <t>12031</t>
+  </si>
+  <si>
+    <t>12032</t>
+  </si>
+  <si>
+    <t>12033</t>
+  </si>
+  <si>
+    <t>12034</t>
+  </si>
+  <si>
+    <t>12035</t>
+  </si>
+  <si>
+    <t>12036</t>
+  </si>
+  <si>
+    <t>12037</t>
+  </si>
+  <si>
+    <t>12038</t>
+  </si>
+  <si>
+    <t>12039</t>
+  </si>
+  <si>
+    <t>12040</t>
+  </si>
+  <si>
+    <t>12041</t>
+  </si>
+  <si>
+    <t>12042</t>
+  </si>
+  <si>
+    <t>12043</t>
+  </si>
+  <si>
+    <t>12044</t>
+  </si>
+  <si>
+    <t>12045</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>12046</t>
+  </si>
+  <si>
+    <t>12047</t>
+  </si>
+  <si>
+    <t>12048</t>
+  </si>
+  <si>
+    <t>12049</t>
+  </si>
+  <si>
+    <t>12050</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>12051</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>12052</t>
+  </si>
+  <si>
+    <t>12053</t>
+  </si>
+  <si>
+    <t>12054</t>
+  </si>
+  <si>
+    <t>12055</t>
+  </si>
+  <si>
+    <t>12056</t>
+  </si>
+  <si>
+    <t>12057</t>
+  </si>
+  <si>
+    <t>12058</t>
+  </si>
+  <si>
+    <t>12059</t>
+  </si>
+  <si>
+    <t>12060</t>
+  </si>
+  <si>
+    <t>12061</t>
+  </si>
+  <si>
+    <t>12062</t>
+  </si>
+  <si>
+    <t>12063</t>
+  </si>
+  <si>
+    <t>12064</t>
+  </si>
+  <si>
+    <t>12065</t>
+  </si>
+  <si>
+    <t>12066</t>
+  </si>
+  <si>
+    <t>12067</t>
+  </si>
+  <si>
+    <t>12068</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>3008</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>3013</t>
+  </si>
+  <si>
+    <t>3014</t>
+  </si>
+  <si>
+    <t>3015</t>
+  </si>
+  <si>
+    <t>3016</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>3018</t>
+  </si>
+  <si>
+    <t>3019</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>1241</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>1504</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1507</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>1598</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>1681</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>1682</t>
+  </si>
+  <si>
+    <t>1683</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>1684</t>
+  </si>
+  <si>
+    <t>1685</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1813</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>1829</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>1831</t>
+  </si>
+  <si>
+    <t>1832</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>2051</t>
+  </si>
+  <si>
+    <t>2052</t>
+  </si>
+  <si>
+    <t>2053</t>
+  </si>
+  <si>
+    <t>2054</t>
+  </si>
+  <si>
+    <t>2055</t>
+  </si>
+  <si>
+    <t>2056</t>
+  </si>
+  <si>
+    <t>2057</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>2059</t>
+  </si>
+  <si>
+    <t>2060</t>
+  </si>
+  <si>
+    <t>2061</t>
+  </si>
+  <si>
+    <t>2062</t>
+  </si>
+  <si>
+    <t>2063</t>
+  </si>
+  <si>
+    <t>2064</t>
+  </si>
+  <si>
+    <t>2065</t>
+  </si>
+  <si>
+    <t>2066</t>
+  </si>
+  <si>
+    <t>2067</t>
+  </si>
+  <si>
+    <t>2068</t>
+  </si>
+  <si>
+    <t>2069</t>
+  </si>
+  <si>
+    <t>2070</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>2072</t>
+  </si>
+  <si>
+    <t>2074</t>
+  </si>
+  <si>
+    <t>2075</t>
+  </si>
+  <si>
+    <t>2076</t>
+  </si>
+  <si>
+    <t>2077</t>
+  </si>
+  <si>
+    <t>2078</t>
+  </si>
+  <si>
+    <t>2079</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>2081</t>
+  </si>
+  <si>
+    <t>2082</t>
+  </si>
+  <si>
+    <t>2083</t>
+  </si>
+  <si>
+    <t>2084</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>2086</t>
+  </si>
+  <si>
+    <t>2087</t>
+  </si>
+  <si>
+    <t>2088</t>
+  </si>
+  <si>
+    <t>2089</t>
+  </si>
+  <si>
+    <t>2090</t>
+  </si>
+  <si>
+    <t>2091</t>
+  </si>
+  <si>
+    <t>2092</t>
+  </si>
+  <si>
+    <t>2093</t>
+  </si>
+  <si>
+    <t>2095</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>2098</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2113</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>2116</t>
+  </si>
+  <si>
+    <t>2117</t>
+  </si>
+  <si>
+    <t>2118</t>
+  </si>
+  <si>
+    <t>2119</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>2122</t>
+  </si>
+  <si>
+    <t>2123</t>
+  </si>
+  <si>
+    <t>2124</t>
+  </si>
+  <si>
+    <t>2125</t>
+  </si>
+  <si>
+    <t>2126</t>
+  </si>
+  <si>
+    <t>2127</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>2129</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>2131</t>
+  </si>
+  <si>
+    <t>2132</t>
+  </si>
+  <si>
+    <t>2133</t>
+  </si>
+  <si>
+    <t>2134</t>
+  </si>
+  <si>
+    <t>2135</t>
+  </si>
+  <si>
+    <t>2136</t>
+  </si>
+  <si>
+    <t>2137</t>
+  </si>
+  <si>
+    <t>2138</t>
+  </si>
+  <si>
+    <t>2139</t>
+  </si>
+  <si>
+    <t>2140</t>
+  </si>
+  <si>
+    <t>2141</t>
+  </si>
+  <si>
+    <t>2142</t>
+  </si>
+  <si>
+    <t>2143</t>
+  </si>
+  <si>
+    <t>2144</t>
+  </si>
+  <si>
+    <t>2145</t>
+  </si>
+  <si>
+    <t>2146</t>
+  </si>
+  <si>
+    <t>2147</t>
+  </si>
+  <si>
+    <t>2148</t>
+  </si>
+  <si>
+    <t>2149</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>2151</t>
+  </si>
+  <si>
+    <t>2153</t>
+  </si>
+  <si>
+    <t>2154</t>
+  </si>
+  <si>
+    <t>2156</t>
+  </si>
+  <si>
+    <t>2157</t>
+  </si>
+  <si>
+    <t>2158</t>
+  </si>
+  <si>
+    <t>2159</t>
+  </si>
+  <si>
+    <t>2160</t>
+  </si>
+  <si>
+    <t>2171</t>
+  </si>
+  <si>
+    <t>2172</t>
+  </si>
+  <si>
+    <t>2173</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>2180</t>
+  </si>
+  <si>
+    <t>2181</t>
+  </si>
+  <si>
+    <t>2182</t>
+  </si>
+  <si>
+    <t>2183</t>
+  </si>
+  <si>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>2185</t>
+  </si>
+  <si>
+    <t>2186</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>2187</t>
+  </si>
+  <si>
+    <t>2188</t>
+  </si>
+  <si>
+    <t>2189</t>
+  </si>
+  <si>
+    <t>2190</t>
+  </si>
+  <si>
+    <t>2191</t>
+  </si>
+  <si>
+    <t>2192</t>
+  </si>
+  <si>
+    <t>2193</t>
+  </si>
+  <si>
+    <t>2194</t>
+  </si>
+  <si>
+    <t>2195</t>
+  </si>
+  <si>
+    <t>2196</t>
+  </si>
+  <si>
+    <t>2197</t>
+  </si>
+  <si>
+    <t>2198</t>
+  </si>
+  <si>
+    <t>2199</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2213</t>
+  </si>
+  <si>
+    <t>2214</t>
+  </si>
+  <si>
+    <t>2215</t>
+  </si>
+  <si>
+    <t>2216</t>
+  </si>
+  <si>
+    <t>2217</t>
+  </si>
+  <si>
+    <t>2218</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>2221</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>2223</t>
+  </si>
+  <si>
+    <t>2224</t>
+  </si>
+  <si>
+    <t>2225</t>
+  </si>
+  <si>
+    <t>2226</t>
+  </si>
+  <si>
+    <t>2227</t>
+  </si>
+  <si>
+    <t>2228</t>
+  </si>
+  <si>
+    <t>2229</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>2231</t>
+  </si>
+  <si>
+    <t>2232</t>
+  </si>
+  <si>
+    <t>2233</t>
+  </si>
+  <si>
+    <t>2234</t>
+  </si>
+  <si>
+    <t>2235</t>
+  </si>
+  <si>
+    <t>2236</t>
+  </si>
+  <si>
+    <t>2237</t>
+  </si>
+  <si>
+    <t>2238</t>
+  </si>
+  <si>
+    <t>2239</t>
+  </si>
+  <si>
+    <t>2240</t>
+  </si>
+  <si>
+    <t>2241</t>
+  </si>
+  <si>
+    <t>2242</t>
+  </si>
+  <si>
+    <t>2243</t>
+  </si>
+  <si>
+    <t>2244</t>
+  </si>
+  <si>
+    <t>2245</t>
+  </si>
+  <si>
+    <t>2246</t>
+  </si>
+  <si>
+    <t>2247</t>
+  </si>
+  <si>
+    <t>2248</t>
+  </si>
+  <si>
+    <t>2249</t>
+  </si>
+  <si>
+    <t>2250</t>
+  </si>
+  <si>
+    <t>2251</t>
+  </si>
+  <si>
+    <t>2253</t>
+  </si>
+  <si>
+    <t>2254</t>
+  </si>
+  <si>
+    <t>2255</t>
+  </si>
+  <si>
+    <t>2256</t>
+  </si>
+  <si>
+    <t>2257</t>
+  </si>
+  <si>
+    <t>203.0</t>
+  </si>
+  <si>
+    <t>11953</t>
+  </si>
+  <si>
+    <t>12459</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>12461</t>
+  </si>
+  <si>
+    <t>12462</t>
+  </si>
+  <si>
+    <t>12463</t>
+  </si>
+  <si>
+    <t>12464</t>
+  </si>
+  <si>
+    <t>12465</t>
+  </si>
+  <si>
+    <t>12466</t>
+  </si>
+  <si>
+    <t>12467</t>
+  </si>
+  <si>
+    <t>12468</t>
+  </si>
+  <si>
+    <t>12469</t>
+  </si>
+  <si>
+    <t>12470</t>
+  </si>
+  <si>
+    <t>12471</t>
+  </si>
+  <si>
+    <t>12472</t>
+  </si>
+  <si>
+    <t>12473</t>
+  </si>
+  <si>
+    <t>12474</t>
+  </si>
+  <si>
+    <t>12475</t>
+  </si>
+  <si>
+    <t>12476</t>
+  </si>
+  <si>
+    <t>12477</t>
+  </si>
+  <si>
+    <t>12478</t>
+  </si>
+  <si>
+    <t>12487</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>12488</t>
+  </si>
+  <si>
+    <t>12489</t>
+  </si>
+  <si>
+    <t>12490</t>
+  </si>
+  <si>
+    <t>12491</t>
+  </si>
+  <si>
+    <t>12492</t>
+  </si>
+  <si>
+    <t>12493</t>
+  </si>
+  <si>
+    <t>12494</t>
+  </si>
+  <si>
+    <t>12495</t>
+  </si>
+  <si>
+    <t>12496</t>
+  </si>
+  <si>
+    <t>12497</t>
+  </si>
+  <si>
+    <t>12498</t>
+  </si>
+  <si>
+    <t>12499</t>
+  </si>
+  <si>
+    <t>12500</t>
+  </si>
+  <si>
+    <t>12501</t>
+  </si>
+  <si>
+    <t>12502</t>
+  </si>
+  <si>
+    <t>12503</t>
+  </si>
+  <si>
+    <t>12504</t>
+  </si>
+  <si>
+    <t>12505</t>
+  </si>
+  <si>
+    <t>12506</t>
+  </si>
+  <si>
+    <t>12507</t>
+  </si>
+  <si>
+    <t>12508</t>
+  </si>
+  <si>
+    <t>12509</t>
+  </si>
+  <si>
+    <t>12510</t>
+  </si>
+  <si>
+    <t>12511</t>
+  </si>
+  <si>
+    <t>12512</t>
+  </si>
+  <si>
+    <t>12513</t>
+  </si>
+  <si>
+    <t>12514</t>
+  </si>
+  <si>
+    <t>12523</t>
+  </si>
+  <si>
+    <t>12524</t>
+  </si>
+  <si>
+    <t>12525</t>
+  </si>
+  <si>
+    <t>12526</t>
+  </si>
+  <si>
+    <t>12527</t>
+  </si>
+  <si>
+    <t>12528</t>
+  </si>
+  <si>
+    <t>12529</t>
+  </si>
+  <si>
+    <t>12530</t>
+  </si>
+  <si>
+    <t>12531</t>
+  </si>
+  <si>
+    <t>12532</t>
+  </si>
+  <si>
+    <t>12533</t>
+  </si>
+  <si>
+    <t>12534</t>
+  </si>
+  <si>
+    <t>12535</t>
+  </si>
+  <si>
+    <t>12536</t>
+  </si>
+  <si>
+    <t>12537</t>
+  </si>
+  <si>
+    <t>12538</t>
+  </si>
+  <si>
+    <t>12539</t>
+  </si>
+  <si>
+    <t>12540</t>
+  </si>
+  <si>
+    <t>12541</t>
+  </si>
+  <si>
+    <t>12542</t>
+  </si>
+  <si>
+    <t>12543</t>
+  </si>
+  <si>
+    <t>12544</t>
+  </si>
+  <si>
+    <t>12545</t>
+  </si>
+  <si>
+    <t>12546</t>
+  </si>
+  <si>
+    <t>12547</t>
+  </si>
+  <si>
+    <t>12583</t>
+  </si>
+  <si>
+    <t>212.0</t>
+  </si>
+  <si>
+    <t>12585</t>
+  </si>
+  <si>
+    <t>12586</t>
+  </si>
+  <si>
+    <t>12587</t>
+  </si>
+  <si>
+    <t>12588</t>
+  </si>
+  <si>
+    <t>12589</t>
+  </si>
+  <si>
+    <t>12590</t>
+  </si>
+  <si>
+    <t>12591</t>
+  </si>
+  <si>
+    <t>12592</t>
+  </si>
+  <si>
+    <t>12593</t>
+  </si>
+  <si>
+    <t>12594</t>
+  </si>
+  <si>
+    <t>12595</t>
+  </si>
+  <si>
+    <t>12596</t>
+  </si>
+  <si>
+    <t>12597</t>
+  </si>
+  <si>
+    <t>12598</t>
+  </si>
+  <si>
+    <t>12599</t>
+  </si>
+  <si>
+    <t>12600</t>
+  </si>
+  <si>
+    <t>12601</t>
+  </si>
+  <si>
+    <t>12602</t>
+  </si>
+  <si>
+    <t>12603</t>
+  </si>
+  <si>
+    <t>12604</t>
+  </si>
+  <si>
+    <t>12605</t>
+  </si>
+  <si>
+    <t>12606</t>
+  </si>
+  <si>
+    <t>12607</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>214.0</t>
   </si>
 </sst>
 </file>
@@ -13024,7 +14869,7 @@
         <v>6000</v>
       </c>
       <c r="D2" t="s">
-        <v>708</v>
+        <v>3040</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -13033,7 +14878,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>4202</v>
+        <v>4817</v>
       </c>
       <c r="H2">
         <v>25</v>

--- a/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
+++ b/backend/imag_commplc-mysql/src/main/resources/DataExcel/Data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498673" uniqueCount="4818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623833" uniqueCount="5019">
   <si>
     <t>Line</t>
   </si>
@@ -14488,6 +14488,609 @@
   </si>
   <si>
     <t>214.0</t>
+  </si>
+  <si>
+    <t>15684</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>15685</t>
+  </si>
+  <si>
+    <t>15686</t>
+  </si>
+  <si>
+    <t>15687</t>
+  </si>
+  <si>
+    <t>15688</t>
+  </si>
+  <si>
+    <t>15689</t>
+  </si>
+  <si>
+    <t>15690</t>
+  </si>
+  <si>
+    <t>15691</t>
+  </si>
+  <si>
+    <t>15692</t>
+  </si>
+  <si>
+    <t>15693</t>
+  </si>
+  <si>
+    <t>15694</t>
+  </si>
+  <si>
+    <t>15695</t>
+  </si>
+  <si>
+    <t>15696</t>
+  </si>
+  <si>
+    <t>15697</t>
+  </si>
+  <si>
+    <t>15698</t>
+  </si>
+  <si>
+    <t>15699</t>
+  </si>
+  <si>
+    <t>15700</t>
+  </si>
+  <si>
+    <t>15701</t>
+  </si>
+  <si>
+    <t>15702</t>
+  </si>
+  <si>
+    <t>15817</t>
+  </si>
+  <si>
+    <t>257.0</t>
+  </si>
+  <si>
+    <t>15818</t>
+  </si>
+  <si>
+    <t>15819</t>
+  </si>
+  <si>
+    <t>15820</t>
+  </si>
+  <si>
+    <t>15821</t>
+  </si>
+  <si>
+    <t>15822</t>
+  </si>
+  <si>
+    <t>15823</t>
+  </si>
+  <si>
+    <t>16351</t>
+  </si>
+  <si>
+    <t>264.0</t>
+  </si>
+  <si>
+    <t>16352</t>
+  </si>
+  <si>
+    <t>16353</t>
+  </si>
+  <si>
+    <t>16354</t>
+  </si>
+  <si>
+    <t>16355</t>
+  </si>
+  <si>
+    <t>16356</t>
+  </si>
+  <si>
+    <t>16357</t>
+  </si>
+  <si>
+    <t>16358</t>
+  </si>
+  <si>
+    <t>16359</t>
+  </si>
+  <si>
+    <t>16360</t>
+  </si>
+  <si>
+    <t>16361</t>
+  </si>
+  <si>
+    <t>16362</t>
+  </si>
+  <si>
+    <t>16363</t>
+  </si>
+  <si>
+    <t>16364</t>
+  </si>
+  <si>
+    <t>16365</t>
+  </si>
+  <si>
+    <t>16366</t>
+  </si>
+  <si>
+    <t>16367</t>
+  </si>
+  <si>
+    <t>16368</t>
+  </si>
+  <si>
+    <t>16369</t>
+  </si>
+  <si>
+    <t>16370</t>
+  </si>
+  <si>
+    <t>16371</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>16372</t>
+  </si>
+  <si>
+    <t>16373</t>
+  </si>
+  <si>
+    <t>16374</t>
+  </si>
+  <si>
+    <t>16375</t>
+  </si>
+  <si>
+    <t>16376</t>
+  </si>
+  <si>
+    <t>16377</t>
+  </si>
+  <si>
+    <t>16378</t>
+  </si>
+  <si>
+    <t>16379</t>
+  </si>
+  <si>
+    <t>16380</t>
+  </si>
+  <si>
+    <t>16381</t>
+  </si>
+  <si>
+    <t>16382</t>
+  </si>
+  <si>
+    <t>16383</t>
+  </si>
+  <si>
+    <t>16384</t>
+  </si>
+  <si>
+    <t>16385</t>
+  </si>
+  <si>
+    <t>16386</t>
+  </si>
+  <si>
+    <t>16387</t>
+  </si>
+  <si>
+    <t>16388</t>
+  </si>
+  <si>
+    <t>16389</t>
+  </si>
+  <si>
+    <t>16390</t>
+  </si>
+  <si>
+    <t>16391</t>
+  </si>
+  <si>
+    <t>16392</t>
+  </si>
+  <si>
+    <t>16393</t>
+  </si>
+  <si>
+    <t>16394</t>
+  </si>
+  <si>
+    <t>16395</t>
+  </si>
+  <si>
+    <t>16396</t>
+  </si>
+  <si>
+    <t>16397</t>
+  </si>
+  <si>
+    <t>16398</t>
+  </si>
+  <si>
+    <t>16399</t>
+  </si>
+  <si>
+    <t>16400</t>
+  </si>
+  <si>
+    <t>16401</t>
+  </si>
+  <si>
+    <t>16407</t>
+  </si>
+  <si>
+    <t>16408</t>
+  </si>
+  <si>
+    <t>16409</t>
+  </si>
+  <si>
+    <t>16410</t>
+  </si>
+  <si>
+    <t>16411</t>
+  </si>
+  <si>
+    <t>16412</t>
+  </si>
+  <si>
+    <t>16413</t>
+  </si>
+  <si>
+    <t>16414</t>
+  </si>
+  <si>
+    <t>16415</t>
+  </si>
+  <si>
+    <t>16416</t>
+  </si>
+  <si>
+    <t>16417</t>
+  </si>
+  <si>
+    <t>16418</t>
+  </si>
+  <si>
+    <t>16419</t>
+  </si>
+  <si>
+    <t>16420</t>
+  </si>
+  <si>
+    <t>16421</t>
+  </si>
+  <si>
+    <t>16422</t>
+  </si>
+  <si>
+    <t>16423</t>
+  </si>
+  <si>
+    <t>16424</t>
+  </si>
+  <si>
+    <t>16425</t>
+  </si>
+  <si>
+    <t>16426</t>
+  </si>
+  <si>
+    <t>16427</t>
+  </si>
+  <si>
+    <t>16428</t>
+  </si>
+  <si>
+    <t>16429</t>
+  </si>
+  <si>
+    <t>16430</t>
+  </si>
+  <si>
+    <t>16431</t>
+  </si>
+  <si>
+    <t>16432</t>
+  </si>
+  <si>
+    <t>16433</t>
+  </si>
+  <si>
+    <t>16434</t>
+  </si>
+  <si>
+    <t>16435</t>
+  </si>
+  <si>
+    <t>16436</t>
+  </si>
+  <si>
+    <t>16437</t>
+  </si>
+  <si>
+    <t>16438</t>
+  </si>
+  <si>
+    <t>16439</t>
+  </si>
+  <si>
+    <t>16440</t>
+  </si>
+  <si>
+    <t>16441</t>
+  </si>
+  <si>
+    <t>16442</t>
+  </si>
+  <si>
+    <t>16443</t>
+  </si>
+  <si>
+    <t>266.0</t>
+  </si>
+  <si>
+    <t>16444</t>
+  </si>
+  <si>
+    <t>16445</t>
+  </si>
+  <si>
+    <t>16446</t>
+  </si>
+  <si>
+    <t>16447</t>
+  </si>
+  <si>
+    <t>16448</t>
+  </si>
+  <si>
+    <t>16449</t>
+  </si>
+  <si>
+    <t>16450</t>
+  </si>
+  <si>
+    <t>16451</t>
+  </si>
+  <si>
+    <t>16452</t>
+  </si>
+  <si>
+    <t>16453</t>
+  </si>
+  <si>
+    <t>16454</t>
+  </si>
+  <si>
+    <t>16455</t>
+  </si>
+  <si>
+    <t>16456</t>
+  </si>
+  <si>
+    <t>16457</t>
+  </si>
+  <si>
+    <t>16458</t>
+  </si>
+  <si>
+    <t>16459</t>
+  </si>
+  <si>
+    <t>16460</t>
+  </si>
+  <si>
+    <t>16461</t>
+  </si>
+  <si>
+    <t>16462</t>
+  </si>
+  <si>
+    <t>16463</t>
+  </si>
+  <si>
+    <t>16464</t>
+  </si>
+  <si>
+    <t>16465</t>
+  </si>
+  <si>
+    <t>16466</t>
+  </si>
+  <si>
+    <t>16467</t>
+  </si>
+  <si>
+    <t>16468</t>
+  </si>
+  <si>
+    <t>16469</t>
+  </si>
+  <si>
+    <t>16470</t>
+  </si>
+  <si>
+    <t>16471</t>
+  </si>
+  <si>
+    <t>16472</t>
+  </si>
+  <si>
+    <t>16473</t>
+  </si>
+  <si>
+    <t>16474</t>
+  </si>
+  <si>
+    <t>16475</t>
+  </si>
+  <si>
+    <t>16476</t>
+  </si>
+  <si>
+    <t>16477</t>
+  </si>
+  <si>
+    <t>16478</t>
+  </si>
+  <si>
+    <t>16479</t>
+  </si>
+  <si>
+    <t>16480</t>
+  </si>
+  <si>
+    <t>16481</t>
+  </si>
+  <si>
+    <t>16482</t>
+  </si>
+  <si>
+    <t>16483</t>
+  </si>
+  <si>
+    <t>16484</t>
+  </si>
+  <si>
+    <t>16485</t>
+  </si>
+  <si>
+    <t>16486</t>
+  </si>
+  <si>
+    <t>16487</t>
+  </si>
+  <si>
+    <t>16488</t>
+  </si>
+  <si>
+    <t>16489</t>
+  </si>
+  <si>
+    <t>16490</t>
+  </si>
+  <si>
+    <t>16491</t>
+  </si>
+  <si>
+    <t>16492</t>
+  </si>
+  <si>
+    <t>16493</t>
+  </si>
+  <si>
+    <t>16494</t>
+  </si>
+  <si>
+    <t>16495</t>
+  </si>
+  <si>
+    <t>18025</t>
+  </si>
+  <si>
+    <t>287.0</t>
+  </si>
+  <si>
+    <t>18026</t>
+  </si>
+  <si>
+    <t>18027</t>
+  </si>
+  <si>
+    <t>18028</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>18029</t>
+  </si>
+  <si>
+    <t>18030</t>
+  </si>
+  <si>
+    <t>18031</t>
+  </si>
+  <si>
+    <t>18079</t>
+  </si>
+  <si>
+    <t>18080</t>
+  </si>
+  <si>
+    <t>18081</t>
+  </si>
+  <si>
+    <t>18082</t>
+  </si>
+  <si>
+    <t>18083</t>
+  </si>
+  <si>
+    <t>18084</t>
+  </si>
+  <si>
+    <t>18085</t>
+  </si>
+  <si>
+    <t>18086</t>
+  </si>
+  <si>
+    <t>18087</t>
+  </si>
+  <si>
+    <t>18088</t>
+  </si>
+  <si>
+    <t>18089</t>
+  </si>
+  <si>
+    <t>18090</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>4003</t>
+  </si>
+  <si>
+    <t>4004</t>
+  </si>
+  <si>
+    <t>4005</t>
+  </si>
+  <si>
+    <t>4006</t>
+  </si>
+  <si>
+    <t>4007</t>
+  </si>
+  <si>
+    <t>4008</t>
+  </si>
+  <si>
+    <t>4009</t>
   </si>
 </sst>
 </file>
@@ -14869,7 +15472,7 @@
         <v>6000</v>
       </c>
       <c r="D2" t="s">
-        <v>3040</v>
+        <v>5018</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -14878,7 +15481,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>4817</v>
+        <v>4321</v>
       </c>
       <c r="H2">
         <v>25</v>
